--- a/final_data_pipeline/output/322110_finishing_elec_nowhp.xlsx
+++ b/final_data_pipeline/output/322110_finishing_elec_nowhp.xlsx
@@ -855,7 +855,7 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -870,10 +870,10 @@
         <v>464412.5427143248</v>
       </c>
       <c r="N8">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="O8">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="P8">
         <v>58.05156783929059</v>
@@ -961,7 +961,7 @@
         <v>30</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -976,10 +976,10 @@
         <v>237247.4559677678</v>
       </c>
       <c r="N10">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="O10">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="P10">
         <v>29.65593199597097</v>
